--- a/code/RaBIDS templates/datasheet.xlsx
+++ b/code/RaBIDS templates/datasheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zisvfs12\Home\christian.paret\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\_RaBIDS\clone github repository\RaBIDS\code\RaBIDS templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>SPM</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Define path to dicom directory</t>
   </si>
   <si>
-    <t>User Input must be 'yes' for running the RaBIDS_2_Create SOTS.m routine</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>fieldmap phasediff [TaskName1] [TaskName2]</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,22 +603,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -737,14 +737,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -766,7 +766,7 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -802,16 +802,16 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -822,7 +822,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -836,10 +836,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
         <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -850,7 +850,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -861,10 +861,10 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -875,7 +875,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -886,13 +886,13 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -903,16 +903,16 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -923,10 +923,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -937,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -959,13 +959,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D29">
         <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">

--- a/code/RaBIDS templates/datasheet.xlsx
+++ b/code/RaBIDS templates/datasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\_RaBIDS\clone github repository\RaBIDS\code\RaBIDS templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zisvfs12\Home\miroslava.jindrova\Documents\repos\RaBIDS\code\RaBIDS templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28520" windowHeight="12590"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28524" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>SPM</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>TaskOrder</t>
+  </si>
+  <si>
+    <t>Defining the order of the sequences with the same series ID and overlapping number of volumes</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -278,10 +287,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -586,22 +596,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -618,10 +628,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -637,11 +650,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -657,11 +670,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -678,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -695,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -711,11 +724,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -731,11 +744,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -751,11 +764,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -765,14 +778,14 @@
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -783,7 +796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -794,7 +807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -810,11 +823,11 @@
       <c r="E15" t="s">
         <v>63</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -824,8 +837,14 @@
       <c r="C16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -838,11 +857,11 @@
       <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -853,7 +872,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -867,7 +886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -878,7 +897,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -891,11 +910,11 @@
       <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -911,11 +930,11 @@
       <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -925,11 +944,11 @@
       <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -939,11 +958,11 @@
       <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -951,7 +970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -965,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -976,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -987,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>

--- a/code/RaBIDS templates/datasheet.xlsx
+++ b/code/RaBIDS templates/datasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\_RaBIDS\clone github repository\RaBIDS\code\RaBIDS templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\_RaBIDS\clone github repository\RaBIDS\code\RaBIDS templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28520" windowHeight="12590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>SPM</t>
   </si>
   <si>
-    <t>dicm2nii</t>
-  </si>
-  <si>
     <t>subject info</t>
   </si>
   <si>
@@ -57,30 +54,18 @@
     <t>add 'sub-' to subject ID</t>
   </si>
   <si>
-    <t>add prefix</t>
-  </si>
-  <si>
     <t>first image</t>
   </si>
   <si>
     <t>MRI series</t>
   </si>
   <si>
-    <t>C:\Program Files\spm12</t>
-  </si>
-  <si>
-    <t>C:\Program Files\dicm2nii</t>
-  </si>
-  <si>
     <t>overwrite existing session directory</t>
   </si>
   <si>
     <t>overwrite import</t>
   </si>
   <si>
-    <t>saveJSONfile</t>
-  </si>
-  <si>
     <t>e.g. your project directory</t>
   </si>
   <si>
@@ -108,18 +93,12 @@
     <t>TaskName and define min-max</t>
   </si>
   <si>
-    <t>.\RaBIDS other software\saveJSONfile</t>
-  </si>
-  <si>
     <t>series info</t>
   </si>
   <si>
     <t>MRI series ID</t>
   </si>
   <si>
-    <t>BIDS</t>
-  </si>
-  <si>
     <t>write scan protocol</t>
   </si>
   <si>
@@ -141,9 +120,6 @@
     <t>if no session ID: write none</t>
   </si>
   <si>
-    <t>first image (delete initial n-1 images)</t>
-  </si>
-  <si>
     <t>Define path to your local SPM12 installation</t>
   </si>
   <si>
@@ -159,18 +135,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Consult manual!</t>
-  </si>
-  <si>
-    <t>E:\mytrainingdata\your project directory</t>
-  </si>
-  <si>
-    <t>E:\mytrainingdata\data exchange server\RABIDS-example\dicomdir</t>
-  </si>
-  <si>
-    <t>RABIDS01</t>
-  </si>
-  <si>
     <t>ObjectType</t>
   </si>
   <si>
@@ -195,53 +159,98 @@
     <t>path to logfiles</t>
   </si>
   <si>
-    <t>E:\mytrainingdata\data exchange server\RABIDS-example\sourcedata</t>
-  </si>
-  <si>
     <t>Choose "allinone" if dicoms from all subjects and sessions are in one and the same directory. Choose "BIDS", if the structure of the dicom directory has BIDS-inspired structure</t>
   </si>
   <si>
     <t>Define path to sourcedata directory</t>
   </si>
   <si>
-    <t>TaskName</t>
-  </si>
-  <si>
-    <t>MRISeriesID</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>Don't forget to import the anatomical scan. Input is only needed to MinImages</t>
-  </si>
-  <si>
-    <t>SessionID</t>
-  </si>
-  <si>
-    <t>GeneralSuffix</t>
-  </si>
-  <si>
     <t>UsageNotes</t>
   </si>
   <si>
-    <t>EchoTimes need to be defined for fieldmap phasedifference images. Assign short TE1 to "MinImages" colomn and long TE2 to "MaxImages" colomn</t>
-  </si>
-  <si>
-    <t>UserInput: you may add [TaskName] of epi-sequences for which this fieldmap is intended for. You may assign one or more TaskNames; each TaskName needs to be in square brackets.</t>
-  </si>
-  <si>
-    <t>fieldmap phasediff [TaskName1] [TaskName2]</t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>C:\Program Files\MATLAB\toolboxes\spm12_mit_conn21</t>
+  </si>
+  <si>
+    <t>not defined</t>
+  </si>
+  <si>
+    <t>dwi_ses-base_acq-cmrr_task-rest_run-01_dir-AP</t>
+  </si>
+  <si>
+    <t>ep2d_NFB_run1</t>
+  </si>
+  <si>
+    <t>ep2d_NFB_run2</t>
+  </si>
+  <si>
+    <t>MPRAGE_1iso_G2</t>
+  </si>
+  <si>
+    <t>gre_field_mapping</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>This volume will be used as t0 for stimulus onset timing</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>add sub prefix</t>
+  </si>
+  <si>
+    <t>add ses prefix</t>
+  </si>
+  <si>
+    <t>add 'ses-' to session ID</t>
+  </si>
+  <si>
+    <t>dwi_ses-base_acq-cmrr_task-rest_run-02_dir-PA</t>
+  </si>
+  <si>
+    <t>dwi [cmrr] (AP)</t>
+  </si>
+  <si>
+    <t>dwi [cmrr] (PA)</t>
+  </si>
+  <si>
+    <t>RunNumber</t>
+  </si>
+  <si>
+    <t>E:\dcm2niix\dcm2niix.exe</t>
+  </si>
+  <si>
+    <t>dcm2niix</t>
+  </si>
+  <si>
+    <t>executable</t>
+  </si>
+  <si>
+    <t>UserInput: you may add [TaskName] of epi-sequences for which this fieldmap is intended for. You may assign one or more TaskNames; each TaskName needs to be in square brackets. The B0FieldIdentifier can be set in (round brackets). CAVE: run-number without leading zero (i.e., 'run-1' for run nr. 1, NOT: 'run-01').</t>
+  </si>
+  <si>
+    <t>fieldmap phasediff [task-neurofeedback_run-1] [task-neurofeedback_run-2]</t>
+  </si>
+  <si>
+    <t>functional [neurofeedback]</t>
+  </si>
+  <si>
+    <t>TB101</t>
+  </si>
+  <si>
+    <t>Siemens_MA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +262,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,10 +300,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -586,416 +614,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>430</v>
+      </c>
+      <c r="F21">
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>430</v>
+      </c>
+      <c r="F24">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>39</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
+      <c r="C39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
